--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject12.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject12.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0.62737867777102285</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.50314850663321364</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -257,7 +257,7 @@
         <v>0</v>
       </c>
       <c r="AR1" s="0">
-        <v>0</v>
+        <v>0.96405063844709171</v>
       </c>
       <c r="AS1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.92245853181221649</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0.68054699475334701</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0.98310387505351504</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.94839416356392992</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="AH2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="0">
         <v>0</v>
@@ -505,7 +505,7 @@
         <v>0</v>
       </c>
       <c r="BF2" s="0">
-        <v>0</v>
+        <v>0.83614336833438663</v>
       </c>
       <c r="BG2" s="0">
         <v>0</v>
@@ -535,15 +535,15 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>1</v>
+        <v>0.8727922670469701</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.61588207517380167</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.52068358424462113</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.68756232621518998</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>0</v>
+        <v>0.83533252260281388</v>
       </c>
       <c r="K3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0</v>
+        <v>0.72080808132968111</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -606,7 +606,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
         <v>0</v>
@@ -624,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="AC3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" s="0">
         <v>0</v>
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="0">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.7281299490742652</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0.84805529799475776</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0</v>
+        <v>0.92380743937550003</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="AN4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="0">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.55731480523025256</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.83658813897742124</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="0">
-        <v>0</v>
+        <v>0.88841880575218546</v>
       </c>
       <c r="M5" s="0">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="V5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="0">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0</v>
+        <v>0.6704849441650701</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="0">
-        <v>0</v>
+        <v>0.68616634862479553</v>
       </c>
       <c r="AT5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0.79005569026415889</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0</v>
+        <v>0.56317510093197698</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.6762470260654484</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="0">
-        <v>0</v>
+        <v>0.77989264844843464</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0.72891299253643282</v>
       </c>
       <c r="I7" s="0">
-        <v>0</v>
+        <v>0.9092223381757486</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0</v>
+        <v>0.62317306439094333</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1457,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="0">
-        <v>0</v>
+        <v>0.96435756787185811</v>
       </c>
       <c r="AG7" s="0">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AS7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="0">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="BG7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH7" s="0">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" s="0">
-        <v>0</v>
+        <v>0.93349028751527019</v>
       </c>
       <c r="BK7" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.88881042948194322</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0.98100649605140222</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0</v>
+        <v>0.69619662715554231</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AD8" s="0">
-        <v>0</v>
+        <v>0.89507176528755239</v>
       </c>
       <c r="AE8" s="0">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="AH8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0</v>
+        <v>0.86314950165816295</v>
       </c>
       <c r="H9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.5828743883967048</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.72376783254877908</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>0</v>
       </c>
       <c r="AN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="0">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="BN9" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0</v>
+        <v>0.75830994133790663</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0</v>
+        <v>0.75123174950110994</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.5352518205089255</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.68505539303415242</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="BC10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.78361569849558022</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.5978323114271018</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0</v>
+        <v>0.56863319434108284</v>
       </c>
       <c r="M11" s="0">
-        <v>1</v>
+        <v>0.77942954491234351</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC11" s="0">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="0">
-        <v>0</v>
+        <v>0.6091129962213675</v>
       </c>
       <c r="AI11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0</v>
+        <v>0.91244961010084746</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0</v>
+        <v>0.61407682450893963</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" s="0">
-        <v>0</v>
+        <v>0.69923069914177094</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.94350216794436137</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.99088522057853901</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>1</v>
+        <v>0.52995682734426863</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.53755684820691152</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0.78788323970855667</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.57315503909240184</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="AM13" s="0">
-        <v>0</v>
+        <v>0.98716302075854478</v>
       </c>
       <c r="AN13" s="0">
         <v>0</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="BD13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE13" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.92000117893865063</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0.8446193049590095</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0.88943089635650585</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.90539269391739507</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="AV14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.95427927942612456</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0.86527323612343487</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.7951921238230294</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0.69812247229446334</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="AT15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU15" s="0">
         <v>0</v>
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="BK15" s="0">
-        <v>0</v>
+        <v>0.64436343589060641</v>
       </c>
       <c r="BL15" s="0">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="0">
-        <v>0</v>
+        <v>0.95497694934957966</v>
       </c>
       <c r="E16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.82229515261586306</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.51412611496866412</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="0">
-        <v>0</v>
+        <v>0.7669849502519821</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="Z16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="0">
         <v>0</v>
@@ -3335,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0</v>
+        <v>0.69639059337540499</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0.67528202676248661</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.7647182844981516</v>
       </c>
       <c r="S17" s="0">
-        <v>0</v>
+        <v>0.5835740061897694</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3544,7 +3544,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="0">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="BJ17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0</v>
+        <v>0.50707634470538321</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.85388343826939717</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.58537879461021447</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.74409926378742863</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3705,7 +3705,7 @@
         <v>0</v>
       </c>
       <c r="Z18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="0">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="C19" s="0">
-        <v>0</v>
+        <v>0.96164641373334858</v>
       </c>
       <c r="D19" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>0</v>
+        <v>0.96302575383094435</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.67757246360808898</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.69377747654397059</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -3920,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="AC19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" s="0">
         <v>0</v>
@@ -3980,7 +3980,7 @@
         <v>0</v>
       </c>
       <c r="AW19" s="0">
-        <v>0</v>
+        <v>0.80102884922091633</v>
       </c>
       <c r="AX19" s="0">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="BH19" s="0">
-        <v>0</v>
+        <v>0.83129701211511842</v>
       </c>
       <c r="BI19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.89444730890841195</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.5792627459661539</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>1</v>
+        <v>0.53864432084357905</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.85375047851386432</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>0</v>
+        <v>0.6948914982691079</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="0">
-        <v>1</v>
+        <v>0.67381402731047846</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>1</v>
+        <v>0.98568983569575352</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0.89117811445408546</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4347,7 +4347,7 @@
         <v>0</v>
       </c>
       <c r="AH21" s="0">
-        <v>0</v>
+        <v>0.8754469054752676</v>
       </c>
       <c r="AI21" s="0">
         <v>0</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="BH21" s="0">
-        <v>0</v>
+        <v>0.84016456197267164</v>
       </c>
       <c r="BI21" s="0">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.53051500131685025</v>
       </c>
       <c r="U22" s="0">
-        <v>1</v>
+        <v>0.88890358886244747</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>0</v>
+        <v>0.80367455810384514</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.64880254792944214</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="AK22" s="0">
-        <v>0</v>
+        <v>0.59500807355847185</v>
       </c>
       <c r="AL22" s="0">
         <v>0</v>
@@ -4580,13 +4580,13 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="0">
-        <v>0</v>
+        <v>0.65954372978087672</v>
       </c>
       <c r="AR22" s="0">
         <v>0</v>
       </c>
       <c r="AS22" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="0">
         <v>0</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="C23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" s="0">
         <v>0</v>
@@ -4720,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0.98686911921672427</v>
       </c>
       <c r="V23" s="0">
-        <v>0</v>
+        <v>0.62138489803457009</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.66930743142920635</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0</v>
+        <v>0.63179438910262564</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="BC23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.56032352345273551</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -4938,10 +4938,10 @@
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>0</v>
+        <v>0.99163434220348567</v>
       </c>
       <c r="Z24" s="0">
-        <v>1</v>
+        <v>0.82095941404070816</v>
       </c>
       <c r="AA24" s="0">
         <v>0</v>
@@ -4980,7 +4980,7 @@
         <v>0</v>
       </c>
       <c r="AM24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN24" s="0">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="0">
-        <v>0</v>
+        <v>0.77511144763602702</v>
       </c>
       <c r="H25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.83802491092929277</v>
       </c>
       <c r="X25" s="0">
-        <v>0</v>
+        <v>0.8855985619347212</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA25" s="0">
-        <v>0</v>
+        <v>0.97467549609879878</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="AW25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX25" s="0">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA25" s="0">
         <v>0</v>
@@ -5323,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="P26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="0">
         <v>0</v>
       </c>
       <c r="R26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S26" s="0">
         <v>0</v>
@@ -5347,22 +5347,22 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>1</v>
+        <v>0.70069138081768623</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.79732756644298819</v>
       </c>
       <c r="AB26" s="0">
-        <v>0</v>
+        <v>0.70330605494698772</v>
       </c>
       <c r="AC26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="0">
         <v>0</v>
@@ -5374,7 +5374,7 @@
         <v>0</v>
       </c>
       <c r="AG26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH26" s="0">
         <v>0</v>
@@ -5449,7 +5449,7 @@
         <v>0</v>
       </c>
       <c r="BF26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG26" s="0">
         <v>0</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="0">
-        <v>0</v>
+        <v>0.89628486248623251</v>
       </c>
       <c r="F27" s="0">
         <v>0</v>
@@ -5550,22 +5550,22 @@
         <v>0</v>
       </c>
       <c r="W27" s="0">
-        <v>0</v>
+        <v>0.94717601558612274</v>
       </c>
       <c r="X27" s="0">
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0</v>
+        <v>0.52995352832209308</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.84445686278547549</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.59271632878344349</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5574,7 +5574,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="0">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0</v>
+        <v>0.91989194361834148</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.83777916788222073</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0</v>
+        <v>0.55722245654793645</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.74718338607912438</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="AL28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="0">
         <v>0</v>
@@ -5816,7 +5816,7 @@
         <v>0</v>
       </c>
       <c r="AQ28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" s="0">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="BH28" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI28" s="0">
         <v>0</v>
@@ -5902,7 +5902,7 @@
         <v>0</v>
       </c>
       <c r="C29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" s="0">
         <v>0</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T29" s="0">
         <v>0</v>
@@ -5971,22 +5971,22 @@
         <v>0</v>
       </c>
       <c r="Z29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA29" s="0">
         <v>0</v>
       </c>
       <c r="AB29" s="0">
-        <v>0</v>
+        <v>0.89862625623660319</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0</v>
+        <v>0.60933554621875174</v>
       </c>
       <c r="AE29" s="0">
-        <v>0</v>
+        <v>0.71861524076187611</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>0</v>
+        <v>0.5699371054217236</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6183,19 +6183,19 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.85457749170918451</v>
       </c>
       <c r="AC30" s="0">
-        <v>0</v>
+        <v>0.93609189264253467</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>1</v>
+        <v>0.6275984356481874</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.56288008338568685</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6386,25 +6386,25 @@
         <v>0</v>
       </c>
       <c r="AA31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB31" s="0">
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0</v>
+        <v>0.50357734481431682</v>
       </c>
       <c r="AD31" s="0">
-        <v>1</v>
+        <v>0.7932405718495763</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>1</v>
+        <v>0.51674155151917545</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>1</v>
+        <v>0.66687522600806681</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>0</v>
+        <v>0.72971262379106594</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.76993879981166269</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0.88365725951637619</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="Z33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>1</v>
+        <v>0.6341336039731118</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0.5062217274007963</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>0</v>
+        <v>0.99128611134091771</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.65601899868580027</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6929,7 +6929,7 @@
         <v>0</v>
       </c>
       <c r="B34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C34" s="0">
         <v>0</v>
@@ -6947,7 +6947,7 @@
         <v>0</v>
       </c>
       <c r="H34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" s="0">
         <v>0</v>
@@ -6956,7 +6956,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="0">
-        <v>0</v>
+        <v>0.9776040638850968</v>
       </c>
       <c r="L34" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0</v>
+        <v>0.5994931699381687</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0</v>
+        <v>0.75082462892802915</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="AN34" s="0">
-        <v>0</v>
+        <v>0.65128198675584015</v>
       </c>
       <c r="AO34" s="0">
         <v>0</v>
@@ -7064,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="AU34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.5333233611844117</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>0</v>
+        <v>0.94406504512747569</v>
       </c>
       <c r="AK35" s="0">
-        <v>0</v>
+        <v>0.5834810117267919</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0</v>
+        <v>0.51298015231190197</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7309,7 +7309,7 @@
         <v>0</v>
       </c>
       <c r="BH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI35" s="0">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="BP35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0</v>
+        <v>0.54362066145343713</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>0</v>
+        <v>0.87154909312423545</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
       <c r="AS36" s="0">
-        <v>0</v>
+        <v>0.91252738903259867</v>
       </c>
       <c r="AT36" s="0">
         <v>0</v>
@@ -7524,7 +7524,7 @@
         <v>0</v>
       </c>
       <c r="BK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL36" s="0">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="0">
-        <v>0</v>
+        <v>0.50694160085085804</v>
       </c>
       <c r="W37" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0</v>
+        <v>0.52288544436338769</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.70504633709013831</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0</v>
+        <v>0.52856090853454729</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>0</v>
+        <v>0.66818904683172942</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.50761754215162014</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0">
-        <v>0</v>
+        <v>0.70422107364976017</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>0</v>
+        <v>0.96021021174120591</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="X39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="0">
         <v>0</v>
@@ -8064,22 +8064,22 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.5205837077228137</v>
       </c>
       <c r="AL39" s="0">
-        <v>0</v>
+        <v>0.61238464356972533</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>1</v>
+        <v>0.64006784553121021</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
       </c>
       <c r="AP39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ39" s="0">
         <v>0</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="D40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" s="0">
         <v>0</v>
@@ -8186,7 +8186,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40" s="0">
         <v>0</v>
@@ -8207,7 +8207,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="0">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="0">
-        <v>0</v>
+        <v>0.52143544731295899</v>
       </c>
       <c r="AI40" s="0">
         <v>0</v>
@@ -8273,16 +8273,16 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.8257549632319291</v>
       </c>
       <c r="AM40" s="0">
-        <v>1</v>
+        <v>0.70540903722405346</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
       </c>
       <c r="AO40" s="0">
-        <v>0</v>
+        <v>0.93324379283359848</v>
       </c>
       <c r="AP40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0</v>
+        <v>0.57397897663870179</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8416,7 +8416,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R41" s="0">
         <v>0</v>
@@ -8485,16 +8485,16 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0</v>
+        <v>0.70065213059830267</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0</v>
+        <v>0.80713336308977945</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.87892033245339352</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="AW41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0</v>
+        <v>0.52457657998315055</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8688,22 +8688,22 @@
         <v>0</v>
       </c>
       <c r="AM42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN42" s="0">
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0</v>
+        <v>0.58503128849862107</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.95818926807835458</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="BN42" s="0">
-        <v>0</v>
+        <v>0.92578498617227889</v>
       </c>
       <c r="BO42" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0</v>
+        <v>0.61837867525828072</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
       <c r="AB43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC43" s="0">
         <v>0</v>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
       <c r="AL43" s="0">
-        <v>0</v>
+        <v>0.74732090169508969</v>
       </c>
       <c r="AM43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.86386620828998695</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0</v>
+        <v>0.75441862405971083</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9109,10 +9109,10 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.67847631236217465</v>
       </c>
       <c r="AQ44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
@@ -9121,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="0">
-        <v>1</v>
+        <v>0.87553588197814869</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="BH44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI44" s="0">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="BL44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM44" s="0">
         <v>0</v>
@@ -9204,13 +9204,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>0</v>
+        <v>0.63737171462456788</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
       </c>
       <c r="G45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="0">
         <v>0</v>
@@ -9255,7 +9255,7 @@
         <v>0</v>
       </c>
       <c r="V45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0</v>
+        <v>0.72679743978516131</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9318,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.69667836824745577</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0.81826048025682119</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9440,7 +9440,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>1</v>
+        <v>0.84251355072877221</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.97221021007071373</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV46" s="0">
-        <v>0</v>
+        <v>0.88302635807141872</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>0</v>
+        <v>0.87361943023684396</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9703,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="AH47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0.99796587427570449</v>
       </c>
       <c r="AT47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0.71948523661883179</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.60040902309960753</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9849,7 +9849,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0</v>
+        <v>0.50928082539358921</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0.62948002308045459</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>0</v>
+        <v>0.9205248361367101</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.86942295837003214</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0</v>
+        <v>0.62100930022782963</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="Y49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="0">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="AO49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP49" s="0">
         <v>0</v>
@@ -10154,10 +10154,10 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.75931287267454595</v>
       </c>
       <c r="AV49" s="0">
-        <v>0</v>
+        <v>0.68266895126357818</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.95542124097794767</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="BG49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.87577028739705121</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,10 +10372,10 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.55453980437674144</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.95461002313300791</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0</v>
+        <v>0.8997125081655819</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10402,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="BI50" s="0">
-        <v>0</v>
+        <v>0.99840429416570331</v>
       </c>
       <c r="BJ50" s="0">
         <v>0</v>
@@ -10530,7 +10530,7 @@
         <v>0</v>
       </c>
       <c r="AI51" s="0">
-        <v>0</v>
+        <v>0.56568229676993753</v>
       </c>
       <c r="AJ51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.79960050058063048</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.82476307003325688</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.63761024496251162</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10706,7 +10706,7 @@
         <v>0</v>
       </c>
       <c r="Y52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="0">
         <v>0</v>
@@ -10751,7 +10751,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="0">
-        <v>0</v>
+        <v>0.6861295305080426</v>
       </c>
       <c r="AO52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.84516075058097462</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.58897809405886514</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.96278463751858634</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.99360421201143756</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0.94165676188690994</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11029,7 +11029,7 @@
         <v>0</v>
       </c>
       <c r="BL53" s="0">
-        <v>0</v>
+        <v>0.95939311910041813</v>
       </c>
       <c r="BM53" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0.71691546234742187</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.96576848878075983</v>
       </c>
       <c r="BD54" s="0">
-        <v>1</v>
+        <v>0.926403307240381</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11279,7 +11279,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K55" s="0">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="W55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.77060038450004642</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.75875063822201627</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.9969923454040257</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11494,7 +11494,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" s="0">
         <v>0</v>
@@ -11515,7 +11515,7 @@
         <v>0</v>
       </c>
       <c r="T56" s="0">
-        <v>0</v>
+        <v>0.87576343629849118</v>
       </c>
       <c r="U56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>1</v>
+        <v>0.91968613494301299</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.59866372787059108</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.67653825599746586</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="BI56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ56" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.76487637666390162</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.52572337917646306</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0.5862204214277682</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0.68110719940777675</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>0</v>
+        <v>0.58874791235816948</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -11945,7 +11945,7 @@
         <v>0</v>
       </c>
       <c r="Z58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="0">
         <v>0</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="AE58" s="0">
-        <v>1</v>
+        <v>0.72573442146984468</v>
       </c>
       <c r="AF58" s="0">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>0</v>
       </c>
       <c r="AX58" s="0">
-        <v>0</v>
+        <v>0.90388082966799077</v>
       </c>
       <c r="AY58" s="0">
         <v>0</v>
@@ -12035,16 +12035,16 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0.9400247367570187</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0</v>
+        <v>0.53779548591519633</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>0</v>
+        <v>0.59313334449992183</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12094,7 +12094,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="0">
         <v>0</v>
@@ -12220,7 +12220,7 @@
         <v>0</v>
       </c>
       <c r="AW59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0.50914509815440545</v>
       </c>
       <c r="BF59" s="0">
-        <v>0</v>
+        <v>0.67711494927905169</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0</v>
+        <v>0.75358994816229741</v>
       </c>
       <c r="BI59" s="0">
-        <v>0</v>
+        <v>0.9589482409724619</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12336,13 +12336,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>0</v>
+        <v>0.6199529908055329</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0</v>
+        <v>0.56466204572954304</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="AB60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60" s="0">
         <v>0</v>
@@ -12384,7 +12384,7 @@
         <v>0</v>
       </c>
       <c r="AI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ60" s="0">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="AR60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS60" s="0">
         <v>0</v>
@@ -12456,16 +12456,16 @@
         <v>0</v>
       </c>
       <c r="BG60" s="0">
-        <v>0</v>
+        <v>0.82777864365944631</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ60" s="0">
-        <v>0</v>
+        <v>0.65605531778079484</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>0</v>
+        <v>0.80371260398177591</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12653,7 +12653,7 @@
         <v>0</v>
       </c>
       <c r="BD61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE61" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>0</v>
+        <v>0.96468697416762461</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.82819729784669494</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0</v>
+        <v>0.81031394951572178</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12742,7 +12742,7 @@
         <v>0</v>
       </c>
       <c r="Q62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0</v>
+        <v>0.50620002253056628</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0.85513182147968714</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0</v>
+        <v>0.53715411786407541</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -13005,7 +13005,7 @@
         <v>0</v>
       </c>
       <c r="AJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK63" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.70292986083182663</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0.68443780624645911</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0</v>
+        <v>0.5521692808546399</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13101,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="BP63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="P64" s="0">
-        <v>0</v>
+        <v>0.70163238182659304</v>
       </c>
       <c r="Q64" s="0">
         <v>0</v>
@@ -13235,7 +13235,7 @@
         <v>0</v>
       </c>
       <c r="AR64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS64" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>0</v>
+        <v>0.52921767123551056</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13277,7 +13277,7 @@
         <v>0</v>
       </c>
       <c r="BF64" s="0">
-        <v>0</v>
+        <v>0.86076099839937004</v>
       </c>
       <c r="BG64" s="0">
         <v>0</v>
@@ -13289,10 +13289,10 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK64" s="0">
-        <v>0</v>
+        <v>0.65267472776146684</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13498,7 +13498,7 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL65" s="0">
         <v>0</v>
@@ -13507,10 +13507,10 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.59765969600671154</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.66539002646480161</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>0</v>
       </c>
       <c r="F66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="0">
         <v>0</v>
@@ -13542,13 +13542,13 @@
         <v>0</v>
       </c>
       <c r="I66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" s="0">
         <v>0</v>
       </c>
       <c r="K66" s="0">
-        <v>0</v>
+        <v>0.965422379579566</v>
       </c>
       <c r="L66" s="0">
         <v>0</v>
@@ -13638,10 +13638,10 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>0</v>
+        <v>0.84878921579035693</v>
       </c>
       <c r="AP66" s="0">
-        <v>0</v>
+        <v>0.86423646008292176</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13707,16 +13707,16 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.66576243294755799</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.66145187765827029</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13859,7 +13859,7 @@
         <v>0</v>
       </c>
       <c r="AT67" s="0">
-        <v>0</v>
+        <v>0.96917649363251523</v>
       </c>
       <c r="AU67" s="0">
         <v>0</v>
@@ -13916,24 +13916,24 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.51973161509819399</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.83545935030606999</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0.75108592353857384</v>
       </c>
       <c r="B68" s="0">
-        <v>1</v>
+        <v>0.93549857391900271</v>
       </c>
       <c r="C68" s="0">
         <v>0</v>
@@ -14032,7 +14032,7 @@
         <v>0</v>
       </c>
       <c r="AI68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ68" s="0">
         <v>0</v>
@@ -14116,7 +14116,7 @@
         <v>0</v>
       </c>
       <c r="BK68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL68" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.53106466653863693</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject12.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject12.xlsx
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>0.62737867777102285</v>
+        <v>0.98310387505351504</v>
       </c>
       <c r="C1" s="0">
-        <v>0.50314850663321364</v>
+        <v>0.61588207517380167</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -329,7 +329,7 @@
         <v>0.92245853181221649</v>
       </c>
       <c r="BP1" s="0">
-        <v>0.68054699475334701</v>
+        <v>0.75108592353857384</v>
       </c>
     </row>
     <row r="2">
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="BP2" s="0">
-        <v>0.8727922670469701</v>
+        <v>0.93549857391900271</v>
       </c>
     </row>
     <row r="3">
@@ -543,7 +543,7 @@
         <v>0.61588207517380167</v>
       </c>
       <c r="B3" s="0">
-        <v>0.52068358424462113</v>
+        <v>0.94839416356392992</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>0.72080808132968111</v>
+        <v>0.96164641373334858</v>
       </c>
       <c r="T3" s="0">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.7281299490742652</v>
+        <v>0.83658813897742124</v>
       </c>
       <c r="F4" s="0">
         <v>0.84805529799475776</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>0.92380743937550003</v>
+        <v>0.95497694934957966</v>
       </c>
       <c r="Q4" s="0">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.55731480523025256</v>
+        <v>0.68756232621518998</v>
       </c>
       <c r="D5" s="0">
         <v>0.83658813897742124</v>
@@ -1030,7 +1030,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="0">
-        <v>0.6704849441650701</v>
+        <v>0.89628486248623251</v>
       </c>
       <c r="AB5" s="0">
         <v>0</v>
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>0.79005569026415889</v>
+        <v>0.84805529799475776</v>
       </c>
       <c r="E6" s="0">
         <v>0</v>
@@ -1176,10 +1176,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>0.56317510093197698</v>
+        <v>0.77989264844843464</v>
       </c>
       <c r="H6" s="0">
-        <v>0.6762470260654484</v>
+        <v>0.88881042948194322</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>0.72891299253643282</v>
+        <v>0.98100649605140222</v>
       </c>
       <c r="I7" s="0">
         <v>0.9092223381757486</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y7" s="0">
-        <v>0.62317306439094333</v>
+        <v>0.77511144763602702</v>
       </c>
       <c r="Z7" s="0">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J8" s="0">
-        <v>0.69619662715554231</v>
+        <v>0.75123174950110994</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>0.86314950165816295</v>
+        <v>0.9092223381757486</v>
       </c>
       <c r="H9" s="0">
         <v>0</v>
@@ -1806,7 +1806,7 @@
         <v>0.5828743883967048</v>
       </c>
       <c r="K9" s="0">
-        <v>0.72376783254877908</v>
+        <v>0.78361569849558022</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -1988,7 +1988,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="0">
-        <v>0.75830994133790663</v>
+        <v>0.83533252260281388</v>
       </c>
       <c r="D10" s="0">
         <v>0</v>
@@ -2006,7 +2006,7 @@
         <v>0.75123174950110994</v>
       </c>
       <c r="I10" s="0">
-        <v>0.5352518205089255</v>
+        <v>0.5828743883967048</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
@@ -2215,13 +2215,13 @@
         <v>0.78361569849558022</v>
       </c>
       <c r="J11" s="0">
-        <v>0.5978323114271018</v>
+        <v>0.68505539303415242</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>0.56863319434108284</v>
+        <v>0.69923069914177094</v>
       </c>
       <c r="M11" s="0">
         <v>0.77942954491234351</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="AH11" s="0">
-        <v>0.6091129962213675</v>
+        <v>0.9776040638850968</v>
       </c>
       <c r="AI11" s="0">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="BN11" s="0">
-        <v>0.91244961010084746</v>
+        <v>0.965422379579566</v>
       </c>
       <c r="BO11" s="0">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="0">
-        <v>0.61407682450893963</v>
+        <v>0.88841880575218546</v>
       </c>
       <c r="F12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0.52995682734426863</v>
+        <v>0.77942954491234351</v>
       </c>
       <c r="L13" s="0">
-        <v>0.53755684820691152</v>
+        <v>0.94350216794436137</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>0.78788323970855667</v>
+        <v>0.8446193049590095</v>
       </c>
       <c r="O13" s="0">
-        <v>0.57315503909240184</v>
+        <v>0.95427927942612456</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>0.92000117893865063</v>
+        <v>0.99088522057853901</v>
       </c>
       <c r="M14" s="0">
         <v>0.8446193049590095</v>
@@ -3051,7 +3051,7 @@
         <v>0.95427927942612456</v>
       </c>
       <c r="N15" s="0">
-        <v>0.86527323612343487</v>
+        <v>0.88943089635650585</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.82229515261586306</v>
+        <v>0.90539269391739507</v>
       </c>
       <c r="O16" s="0">
-        <v>0.51412611496866412</v>
+        <v>0.7951921238230294</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BL16" s="0">
-        <v>0.69639059337540499</v>
+        <v>0.70163238182659304</v>
       </c>
       <c r="BM16" s="0">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>0.67528202676248661</v>
+        <v>0.69812247229446334</v>
       </c>
       <c r="P17" s="0">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.7647182844981516</v>
+        <v>0.85388343826939717</v>
       </c>
       <c r="S17" s="0">
-        <v>0.5835740061897694</v>
+        <v>0.96302575383094435</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>0.50707634470538321</v>
+        <v>0.7669849502519821</v>
       </c>
       <c r="Q18" s="0">
         <v>0.85388343826939717</v>
@@ -3684,10 +3684,10 @@
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>0.58537879461021447</v>
+        <v>0.67757246360808898</v>
       </c>
       <c r="T18" s="0">
-        <v>0.74409926378742863</v>
+        <v>0.89444730890841195</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0.89444730890841195</v>
       </c>
       <c r="S20" s="0">
-        <v>0.5792627459661539</v>
+        <v>0.69377747654397059</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.53864432084357905</v>
+        <v>0.67381402731047846</v>
       </c>
       <c r="V20" s="0">
         <v>0.85375047851386432</v>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
       <c r="BD20" s="0">
-        <v>0.6948914982691079</v>
+        <v>0.87576343629849118</v>
       </c>
       <c r="BE20" s="0">
         <v>0</v>
@@ -4314,7 +4314,7 @@
         <v>0.98568983569575352</v>
       </c>
       <c r="W21" s="0">
-        <v>0.89117811445408546</v>
+        <v>0.98686911921672427</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.53051500131685025</v>
+        <v>0.85375047851386432</v>
       </c>
       <c r="U22" s="0">
-        <v>0.88890358886244747</v>
+        <v>0.98568983569575352</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0.98686911921672427</v>
       </c>
       <c r="V23" s="0">
-        <v>0.62138489803457009</v>
+        <v>0.80367455810384514</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4732,13 +4732,13 @@
         <v>0</v>
       </c>
       <c r="Y23" s="0">
-        <v>0.66930743142920635</v>
+        <v>0.83802491092929277</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
       </c>
       <c r="AA23" s="0">
-        <v>0.63179438910262564</v>
+        <v>0.94717601558612274</v>
       </c>
       <c r="AB23" s="0">
         <v>0</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>0.56032352345273551</v>
+        <v>0.64880254792944214</v>
       </c>
       <c r="W24" s="0">
         <v>0</v>
@@ -5141,7 +5141,7 @@
         <v>0.83802491092929277</v>
       </c>
       <c r="X25" s="0">
-        <v>0.8855985619347212</v>
+        <v>0.99163434220348567</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>0</v>
       </c>
       <c r="X26" s="0">
-        <v>0.70069138081768623</v>
+        <v>0.82095941404070816</v>
       </c>
       <c r="Y26" s="0">
         <v>0</v>
@@ -5356,10 +5356,10 @@
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>0.79732756644298819</v>
+        <v>0.84445686278547549</v>
       </c>
       <c r="AB26" s="0">
-        <v>0.70330605494698772</v>
+        <v>0.91989194361834148</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.52995352832209308</v>
+        <v>0.97467549609879878</v>
       </c>
       <c r="Z27" s="0">
         <v>0.84445686278547549</v>
@@ -5565,7 +5565,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>0.59271632878344349</v>
+        <v>0.83777916788222073</v>
       </c>
       <c r="AC27" s="0">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>0.55722245654793645</v>
+        <v>0.89862625623660319</v>
       </c>
       <c r="AD28" s="0">
-        <v>0.74718338607912438</v>
+        <v>0.85457749170918451</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5983,7 +5983,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>0.60933554621875174</v>
+        <v>0.93609189264253467</v>
       </c>
       <c r="AE29" s="0">
         <v>0.71861524076187611</v>
@@ -6123,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="H30" s="0">
-        <v>0.5699371054217236</v>
+        <v>0.89507176528755239</v>
       </c>
       <c r="I30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.6275984356481874</v>
+        <v>0.7932405718495763</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.56288008338568685</v>
+        <v>0.76993879981166269</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6392,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>0.50357734481431682</v>
+        <v>0.71861524076187611</v>
       </c>
       <c r="AD31" s="0">
         <v>0.7932405718495763</v>
@@ -6404,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0.51674155151917545</v>
+        <v>0.6341336039731118</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6479,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="BF31" s="0">
-        <v>0.66687522600806681</v>
+        <v>0.72573442146984468</v>
       </c>
       <c r="BG31" s="0">
         <v>0</v>
@@ -6532,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="0">
-        <v>0.72971262379106594</v>
+        <v>0.96435756787185811</v>
       </c>
       <c r="H32" s="0">
         <v>0</v>
@@ -6813,7 +6813,7 @@
         <v>0.6341336039731118</v>
       </c>
       <c r="AF33" s="0">
-        <v>0.5062217274007963</v>
+        <v>0.88365725951637619</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
@@ -6986,7 +6986,7 @@
         <v>0</v>
       </c>
       <c r="U34" s="0">
-        <v>0.5994931699381687</v>
+        <v>0.8754469054752676</v>
       </c>
       <c r="V34" s="0">
         <v>0</v>
@@ -7022,7 +7022,7 @@
         <v>0</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.75082462892802915</v>
+        <v>0.99128611134091771</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7228,7 +7228,7 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>0.5333233611844117</v>
+        <v>0.65601899868580027</v>
       </c>
       <c r="AH35" s="0">
         <v>0</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="0">
-        <v>0.51298015231190197</v>
+        <v>0.56568229676993753</v>
       </c>
       <c r="AZ35" s="0">
         <v>0</v>
@@ -7440,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.54362066145343713</v>
+        <v>0.94406504512747569</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="V37" s="0">
-        <v>0.50694160085085804</v>
+        <v>0.59500807355847185</v>
       </c>
       <c r="W37" s="0">
         <v>0</v>
@@ -7646,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>0.52288544436338769</v>
+        <v>0.5834810117267919</v>
       </c>
       <c r="AJ37" s="0">
         <v>0</v>
@@ -7855,7 +7855,7 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.52856090853454729</v>
+        <v>0.87154909312423545</v>
       </c>
       <c r="AK38" s="0">
         <v>0</v>
@@ -7867,7 +7867,7 @@
         <v>0.66818904683172942</v>
       </c>
       <c r="AN38" s="0">
-        <v>0.50761754215162014</v>
+        <v>0.8257549632319291</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="AQ38" s="0">
-        <v>0.70422107364976017</v>
+        <v>0.74732090169508969</v>
       </c>
       <c r="AR38" s="0">
         <v>0</v>
@@ -7992,7 +7992,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="0">
-        <v>0.96021021174120591</v>
+        <v>0.98716302075854478</v>
       </c>
       <c r="N39" s="0">
         <v>0</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>0.5205837077228137</v>
+        <v>0.70504633709013831</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.61238464356972533</v>
+        <v>0.66818904683172942</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0.64006784553121021</v>
+        <v>0.70540903722405346</v>
       </c>
       <c r="AO39" s="0">
         <v>0</v>
@@ -8261,7 +8261,7 @@
         <v>0</v>
       </c>
       <c r="AH40" s="0">
-        <v>0.52143544731295899</v>
+        <v>0.65128198675584015</v>
       </c>
       <c r="AI40" s="0">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="0">
-        <v>0.57397897663870179</v>
+        <v>0.6861295305080426</v>
       </c>
       <c r="BA40" s="0">
         <v>0</v>
@@ -8485,7 +8485,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="0">
-        <v>0.70065213059830267</v>
+        <v>0.93324379283359848</v>
       </c>
       <c r="AO41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>0.52457657998315055</v>
+        <v>0.84878921579035693</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8694,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>0.58503128849862107</v>
+        <v>0.80713336308977945</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
@@ -8843,7 +8843,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="0">
-        <v>0.61837867525828072</v>
+        <v>0.65954372978087672</v>
       </c>
       <c r="W43" s="0">
         <v>0</v>
@@ -8900,7 +8900,7 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0.86386620828998695</v>
+        <v>0.87892033245339352</v>
       </c>
       <c r="AP43" s="0">
         <v>0</v>
@@ -8986,7 +8986,7 @@
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.75441862405971083</v>
+        <v>0.96405063844709171</v>
       </c>
       <c r="B44" s="0">
         <v>0</v>
@@ -9109,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.67847631236217465</v>
+        <v>0.95818926807835458</v>
       </c>
       <c r="AQ44" s="0">
         <v>0</v>
@@ -9204,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="0">
-        <v>0.63737171462456788</v>
+        <v>0.68616634862479553</v>
       </c>
       <c r="F45" s="0">
         <v>0</v>
@@ -9297,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="0">
-        <v>0.72679743978516131</v>
+        <v>0.91252738903259867</v>
       </c>
       <c r="AK45" s="0">
         <v>0</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>0.69667836824745577</v>
+        <v>0.97221021007071373</v>
       </c>
       <c r="AU45" s="0">
-        <v>0.81826048025682119</v>
+        <v>0.99796587427570449</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9527,7 +9527,7 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0.84251355072877221</v>
+        <v>0.87553588197814869</v>
       </c>
       <c r="AS46" s="0">
         <v>0.97221021007071373</v>
@@ -9596,7 +9596,7 @@
         <v>0</v>
       </c>
       <c r="BO46" s="0">
-        <v>0.87361943023684396</v>
+        <v>0.96917649363251523</v>
       </c>
       <c r="BP46" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0.71948523661883179</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.60040902309960753</v>
+        <v>0.75931287267454595</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9945,10 +9945,10 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>0.50928082539358921</v>
+        <v>0.88302635807141872</v>
       </c>
       <c r="AU48" s="0">
-        <v>0.62948002308045459</v>
+        <v>0.71948523661883179</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0.9205248361367101</v>
       </c>
       <c r="AX48" s="0">
-        <v>0.86942295837003214</v>
+        <v>0.87577028739705121</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="S49" s="0">
-        <v>0.62100930022782963</v>
+        <v>0.80102884922091633</v>
       </c>
       <c r="T49" s="0">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0.75931287267454595</v>
       </c>
       <c r="AV49" s="0">
-        <v>0.68266895126357818</v>
+        <v>0.9205248361367101</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.55453980437674144</v>
+        <v>0.82476307003325688</v>
       </c>
       <c r="AZ50" s="0">
         <v>0.95461002313300791</v>
@@ -10393,7 +10393,7 @@
         <v>0</v>
       </c>
       <c r="BF50" s="0">
-        <v>0.8997125081655819</v>
+        <v>0.90388082966799077</v>
       </c>
       <c r="BG50" s="0">
         <v>0</v>
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>0.79960050058063048</v>
+        <v>0.95542124097794767</v>
       </c>
       <c r="AX51" s="0">
         <v>0.82476307003325688</v>
@@ -10584,7 +10584,7 @@
         <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>0.63761024496251162</v>
+        <v>0.96278463751858634</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.84516075058097462</v>
+        <v>0.95461002313300791</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10790,7 +10790,7 @@
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>0.58897809405886514</v>
+        <v>0.99360421201143756</v>
       </c>
       <c r="BB52" s="0">
         <v>0</v>
@@ -11202,7 +11202,7 @@
         <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>0.71691546234742187</v>
+        <v>0.94165676188690994</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
@@ -11411,7 +11411,7 @@
         <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>0.77060038450004642</v>
+        <v>0.96576848878075983</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
@@ -11617,10 +11617,10 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.91968613494301299</v>
+        <v>0.926403307240381</v>
       </c>
       <c r="BC56" s="0">
-        <v>0.59866372787059108</v>
+        <v>0.75875063822201627</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
@@ -11826,16 +11826,16 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0.76487637666390162</v>
+        <v>0.9969923454040257</v>
       </c>
       <c r="BD57" s="0">
-        <v>0.52572337917646306</v>
+        <v>0.67653825599746586</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>0.5862204214277682</v>
+        <v>0.9400247367570187</v>
       </c>
       <c r="BG57" s="0">
         <v>0.68110719940777675</v>
@@ -11873,7 +11873,7 @@
         <v>0</v>
       </c>
       <c r="B58" s="0">
-        <v>0.58874791235816948</v>
+        <v>0.83614336833438663</v>
       </c>
       <c r="C58" s="0">
         <v>0</v>
@@ -12044,7 +12044,7 @@
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>0.53779548591519633</v>
+        <v>0.67711494927905169</v>
       </c>
       <c r="BH58" s="0">
         <v>0</v>
@@ -12059,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="BL58" s="0">
-        <v>0.59313334449992183</v>
+        <v>0.86076099839937004</v>
       </c>
       <c r="BM58" s="0">
         <v>0</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>0.50914509815440545</v>
+        <v>0.68110719940777675</v>
       </c>
       <c r="BF59" s="0">
         <v>0.67711494927905169</v>
@@ -12253,10 +12253,10 @@
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>0.75358994816229741</v>
+        <v>0.82777864365944631</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.9589482409724619</v>
+        <v>0.96468697416762461</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12336,13 +12336,13 @@
         <v>0</v>
       </c>
       <c r="S60" s="0">
-        <v>0.6199529908055329</v>
+        <v>0.83129701211511842</v>
       </c>
       <c r="T60" s="0">
         <v>0</v>
       </c>
       <c r="U60" s="0">
-        <v>0.56466204572954304</v>
+        <v>0.84016456197267164</v>
       </c>
       <c r="V60" s="0">
         <v>0</v>
@@ -12635,7 +12635,7 @@
         <v>0</v>
       </c>
       <c r="AX61" s="0">
-        <v>0.80371260398177591</v>
+        <v>0.99840429416570331</v>
       </c>
       <c r="AY61" s="0">
         <v>0</v>
@@ -12712,7 +12712,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="0">
-        <v>0.81031394951572178</v>
+        <v>0.93349028751527019</v>
       </c>
       <c r="H62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.50620002253056628</v>
+        <v>0.65605531778079484</v>
       </c>
       <c r="BI62" s="0">
         <v>0</v>
@@ -12942,7 +12942,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="0">
-        <v>0.53715411786407541</v>
+        <v>0.64436343589060641</v>
       </c>
       <c r="P63" s="0">
         <v>0</v>
@@ -13080,16 +13080,16 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.70292986083182663</v>
+        <v>0.82819729784669494</v>
       </c>
       <c r="BJ63" s="0">
-        <v>0.68443780624645911</v>
+        <v>0.85513182147968714</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>0.5521692808546399</v>
+        <v>0.65267472776146684</v>
       </c>
       <c r="BM63" s="0">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="BA64" s="0">
-        <v>0.52921767123551056</v>
+        <v>0.95939311910041813</v>
       </c>
       <c r="BB64" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.59765969600671154</v>
+        <v>0.66576243294755799</v>
       </c>
       <c r="BO65" s="0">
         <v>0.66539002646480161</v>
@@ -13641,7 +13641,7 @@
         <v>0.84878921579035693</v>
       </c>
       <c r="AP66" s="0">
-        <v>0.86423646008292176</v>
+        <v>0.92578498617227889</v>
       </c>
       <c r="AQ66" s="0">
         <v>0</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.66145187765827029</v>
+        <v>0.92245853181221649</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.51973161509819399</v>
+        <v>0.66539002646480161</v>
       </c>
       <c r="BN67" s="0">
         <v>0</v>
@@ -14128,7 +14128,7 @@
         <v>0</v>
       </c>
       <c r="BO68" s="0">
-        <v>0.53106466653863693</v>
+        <v>0.83545935030606999</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>
